--- a/results/roundabout_full.txt_50_yaw_change.xlsx
+++ b/results/roundabout_full.txt_50_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8589C14B-C0CD-4A5C-8C97-B70C8FE62EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD1680-F3FA-47D8-8E4F-325D63128CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roundabout_full.txt_50_yaw_chan" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,6 +578,4005 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Yaw change at 50 km/h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$A$2:$A$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$B$2:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.5229099808879E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.6085554083185599E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5718656102136398E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.5357640908085299E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.2052715967374999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.6547268469142202E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.7576329049845297E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.3483358182581101E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.6739212062724099E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.08981485575772E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1659629538672601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.08844331700407E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6696681499234701E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4638352315673098E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4461143995576004E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.9941631382359699E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.109138870983588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.16250865054408E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.130675516899628</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4896191666157606E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12534585022204001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.2286589904799595E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8974043649902401E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.7564703452498406E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.5190262824546999E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.8317264747961197E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.28093831649062E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.1324660717334199E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.49719414750071E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.9379573205328101E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.5455431802763299E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0833101371476801E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.3648196698138301E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.9809393139470492E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1028612141339799E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.25892969788784E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3729664450186699E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4503542677567101E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9577588357834401E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4575260350317599E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8768614404707E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3643761605721699E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2433443762305801E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.7129757624982897E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.3077497388600401E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.0598767887219101E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.7312046685307199E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.3468490153835601E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.94081211922052E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.54841957931192E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.6757757846180094E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9079256935283297E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.9081810595236599E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-7.7513773298800104E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.5850657048483303E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-6.7516391001418805E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-6.05658968559298E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-5.2898139311825999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.5045969486711399E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.6386505636863298E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.9855712051317901E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.38507526367659E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.7926232588725201E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.39295876946437E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-9.4668802610734792E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.1361006309649203E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.2749678369770798E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.4939357561159001E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.17795339350726E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7601075290233298E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.1650342697893399E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.2370559629408E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.0528532774627303E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.4459894210796096E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.0657903797801203E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.29911320455602E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.1680212182329501E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.3983871137305998E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.2658848174532104E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.05147249181507E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.57011395664192E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4897568707252499E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.1196032606811298E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.7242953313197996E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.1553739713269603E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.9383484284601297E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.51767095835038E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4689509207622199E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.99496560237377E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.7089550718309299E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.71259620089384E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.1870627895167698E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.4814362876102804E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4D8-45EA-98B0-30A48F64E825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$A$2:$A$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$C$2:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.4860103735007894E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.6528485802863107E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.15301752938982999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.8009626404620502E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.123167693636357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.0997018502587804E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.3532011600747701E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.125507423810816</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26438853500454501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20512673580014601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11830938829269599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15836468303724299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.94127373442064E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13034664637976701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.374054482800041</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.35785209927744399</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.121758646834161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4268297476194895E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5681361581364802E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.61437933857235E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.8262644454823203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.144747913901626</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.10259822447910399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6180571120965199E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.273369543755E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1599844741707598E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12856664638677101</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.03943790719651E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.54885872413631E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.32358269875608497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.34074863164034802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18218561369240999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.4562155940523198E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.11994714196997E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.34564999939997E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.7008292167895196E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.2038278442289499E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.30669202229261E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.6623320083402304E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1066446535520402E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.0904370791818692E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.6939530487125703E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.8981530452846803E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8351934733645792E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5924436305949503E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.2332892556491498E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8036057774340901E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.3364135990262999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.8552472547476796E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.8391196006489501E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.69343774998648E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.3220684059354303E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9557533061751003E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.6026747168412601E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.5334922389653502E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8291568403987499E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.58036403238808E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.3428367742882898E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1194457633427798E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.06311696420516E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6485022943269101E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4969388052887801E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3541907471352501E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3177966049263601E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0531432216997201E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.5609037508645098E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.6470759150183497E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.57806742661675E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8901469980055E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1649877650219899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4D8-45EA-98B0-30A48F64E825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$A$2:$A$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$D$2:$D$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.4860103735007894E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.16121041534240499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.4547699827174499E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.122186444280863</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3320930380006902E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.104532845387942</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17566424834271199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30542063243318202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23415697686901199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13331139931569599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.149233450140528</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.124482146830488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8420019733791001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.107200658319852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.9088560560312999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9013946375612005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0082186798807303E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.9354103662787203E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14571590692501801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.5386352149475603E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8971608076282604E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.17907436769395499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.14865588493985701</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.125554695720173</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.10003480072844601</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.102140756185193</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.33325189259312099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.201685176842959</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.14725532435962199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-9.3196705456626602E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.3122863299890202E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.9349067454470301E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.4572425320294201E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-4.9975357496901797E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.2796439558996597E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.40087923771976E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1537807255961302E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4330150802354904E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.5442641757166002E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.81248360859812E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4252511115325201E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0476998928585598E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.6843214241431702E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.33794744860206E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0102240766517298E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.7019486125120498E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.4133124790760301E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1440785862903E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.2894506495360601E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.46182195299194E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.3227859028349899E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1733862546982402E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0218029603312699E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.87308902539347E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9679331698717402E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4750507979835699E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.39373389234836E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3050439700876301E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2143914867314999E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2805525677943299E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.6079203761000704E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.2718104475206399E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.1442202540277902E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.81444124390657E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.08687142381196E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C4D8-45EA-98B0-30A48F64E825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$A$2:$A$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_yaw_chan'!$E$2:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.4860103735007894E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.6528485802863107E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.15301752938982999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.8009626404620502E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.123167693636357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.0997018502587804E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.3532011600747701E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.125507423810816</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26438853500454501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20512673580014601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11830938829269599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15836468303724299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.94127373442064E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13034664637976701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.374054482800041</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.37402210376386003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.145148755904285</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1076183776593799E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.36143924926629E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.4182771590317599E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.29375918423702302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8047998323091901E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.07078210586018E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.25301963886065E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2497704444733299E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1622870448024498E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3429933088866699E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.25367999473367E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4180270262667499E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1948272056933499E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.00974588475727E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7997613778265699E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5717528632170899E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6687915450933599E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-7.7941892772363996E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.1264229431039401E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.29670644896229E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.1968274865711903E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.7713650689030501E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.3532256691348498E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.9783641804405698E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.0343726661355396E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.5065283579622694E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.7258226040739605E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-7.4603619037746802E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.0003236123311496E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-6.3870047976073901E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5.6740339631977298E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.9155482482653202E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.04194893616363E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.3794507106824502E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.7589044273494501E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.1927265653917699E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.6385074809064998E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.13530128724861801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.9120909443070699E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.60971949869836E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0259854904418999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8993746744764901E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6164115131111802E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.3927345633214299E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.21140164462117E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0612020993077899E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.3455064150254306E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.8836051746656302E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.0287431953529704E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.30930780996352E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.6602319162717797E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0744686255066104E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.5460513667743598E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.3845778869597797E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.4915000552333398E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.1554016654366298E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.8441352306371099E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.75826835870572E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.2015737168535601E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.9952079498010001E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.80212522987619E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.62330856358937E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5727740386499601E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2550673192682799E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.9166407360784499E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.8008327546765702E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C4D8-45EA-98B0-30A48F64E825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="703602207"/>
+        <c:axId val="703586815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="703602207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703586815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703586815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Yaw change, rad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703602207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60A75BF-91C4-4547-8291-747D410219D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -874,11 +4873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:A150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,5 +6868,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>